--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="358">
   <si>
     <t>Property</t>
   </si>
@@ -557,6 +557,210 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>medicalInstitutionCode</t>
@@ -592,211 +796,11 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>insurerNumber</t>
@@ -1105,23 +1109,31 @@
     <t>Organization.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName
+    <t xml:space="preserve">HumanName {http://jpfhir.jp/fhir/core/StructureDefinition/JP_HumanName}
 </t>
   </si>
   <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
+    <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.
+識別のための人の名前情報、</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
+名前が変更されたり、違っていると指摘されたり、コンテキストによって使われる名前が異なる場合がある。名前は、コンテキストに応じて重要性が異なるさまざまなタイプの部分に分割される場合があり、部分への分割は必ずしも重要ではない。個人名の場合、さまざまな部分に暗黙の意味が含まれている場合と含まれていない場合がある。さまざまな文化が名前の部分にさまざまな重要性を関連付けており、システムが世界中の名前の部分を気にする必要がある程度は大きく異なる。</t>
   </si>
   <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
   </si>
   <si>
     <t>Organization.contact.telecom</t>
@@ -1482,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3094,11 +3106,9 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3107,7 +3117,7 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>76</v>
@@ -3116,10 +3126,10 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>172</v>
@@ -3127,12 +3137,8 @@
       <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3180,31 +3186,31 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3232,7 +3238,7 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>177</v>
@@ -3240,7 +3246,9 @@
       <c r="L16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3277,37 +3285,37 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3322,26 +3330,26 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>182</v>
@@ -3350,9 +3358,11 @@
         <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3376,49 +3386,49 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3429,7 +3439,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3446,25 +3456,25 @@
         <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3489,13 +3499,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3513,7 +3523,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3528,10 +3538,10 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3542,7 +3552,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3565,19 +3575,19 @@
         <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3590,7 +3600,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3602,13 +3612,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3626,7 +3636,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3641,13 +3651,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3655,7 +3665,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3663,7 +3673,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>85</v>
@@ -3678,32 +3688,30 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -3739,7 +3747,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3754,13 +3762,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3768,7 +3776,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3791,17 +3799,15 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3814,7 +3820,7 @@
         <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>76</v>
@@ -3850,7 +3856,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3865,13 +3871,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3879,7 +3885,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3902,15 +3908,17 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3959,7 +3967,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3974,13 +3982,13 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3988,9 +3996,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4011,18 +4021,20 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4070,40 +4082,38 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4112,7 +4122,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4121,10 +4131,10 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>172</v>
@@ -4132,12 +4142,8 @@
       <c r="L24" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4185,31 +4191,31 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -4218,14 +4224,14 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4237,7 +4243,7 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>177</v>
@@ -4245,7 +4251,9 @@
       <c r="L25" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4282,37 +4290,37 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4327,26 +4335,26 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>182</v>
@@ -4355,9 +4363,11 @@
         <v>183</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4381,49 +4391,49 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4434,7 +4444,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4451,25 +4461,25 @@
         <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4494,13 +4504,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4518,7 +4528,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4533,10 +4543,10 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4547,7 +4557,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4555,7 +4565,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4570,32 +4580,32 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -4607,13 +4617,13 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -4631,7 +4641,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4646,13 +4656,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4660,7 +4670,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4668,7 +4678,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
@@ -4683,32 +4693,30 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4744,7 +4752,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4759,13 +4767,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4773,7 +4781,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4796,17 +4804,15 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4819,7 +4825,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -4855,7 +4861,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4870,13 +4876,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4884,7 +4890,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4907,15 +4913,17 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -4964,7 +4972,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4979,13 +4987,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4993,9 +5001,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5004,7 +5014,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -5016,18 +5026,20 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5075,36 +5087,36 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5121,32 +5133,26 @@
         <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5190,7 +5196,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5202,28 +5208,28 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5239,23 +5245,21 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5279,31 +5283,31 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5315,24 +5319,24 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5349,25 +5353,25 @@
         <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5392,13 +5396,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5416,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5425,19 +5429,19 @@
         <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5445,7 +5449,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5456,7 +5460,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
@@ -5465,22 +5469,22 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5505,13 +5509,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5529,13 +5533,13 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -5544,10 +5548,10 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5558,7 +5562,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5566,10 +5570,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -5578,35 +5582,35 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -5642,28 +5646,28 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5671,7 +5675,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5682,7 +5686,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>76</v>
@@ -5691,23 +5695,21 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>294</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5719,7 +5721,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -5755,28 +5757,28 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5784,7 +5786,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5807,20 +5809,16 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5868,7 +5866,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5883,13 +5881,13 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5897,7 +5895,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5908,7 +5906,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -5917,23 +5915,21 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5981,13 +5977,13 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -5996,13 +5992,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6010,7 +6006,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6027,26 +6023,32 @@
         <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="Q41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6102,28 +6104,28 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6139,21 +6141,23 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6177,13 +6181,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6201,7 +6205,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6213,59 +6217,59 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6314,28 +6318,28 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6343,7 +6347,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6354,7 +6358,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>76</v>
@@ -6366,17 +6370,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6401,13 +6407,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6425,13 +6431,13 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
@@ -6443,7 +6449,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6454,7 +6460,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6465,7 +6471,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>76</v>
@@ -6477,17 +6483,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6536,28 +6544,28 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6565,7 +6573,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6588,17 +6596,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6647,7 +6657,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6656,19 +6666,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6676,7 +6686,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6696,20 +6706,22 @@
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6758,7 +6770,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6773,13 +6785,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>348</v>
+        <v>255</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6787,7 +6799,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6810,19 +6822,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6871,7 +6883,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6889,12 +6901,904 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
     </row>
